--- a/задачи.xlsx
+++ b/задачи.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Задачи</t>
   </si>
@@ -84,13 +84,22 @@
   </si>
   <si>
     <t>обработчик ошибок</t>
+  </si>
+  <si>
+    <t>защита сервера сертификатами безопасности</t>
+  </si>
+  <si>
+    <t>авторизация на сайте</t>
+  </si>
+  <si>
+    <t>перенос приложения на сервер в интернете</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +119,16 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -133,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -141,6 +160,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -445,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J18"/>
+  <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E13:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -566,35 +586,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <f>J4*C12</f>
-        <v>500</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <f>J4*C13</f>
@@ -603,28 +608,28 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <f>J4*C14</f>
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <f>J4*C15</f>
@@ -633,13 +638,13 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <f>J4*C16</f>
@@ -648,13 +653,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E17" s="1">
         <f>J4*C17</f>
@@ -663,17 +668,73 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <f>J4*C18</f>
         <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="1">
+        <f>J4*C19</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <f>J4*C20</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <f>J4*C21</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/задачи.xlsx
+++ b/задачи.xlsx
@@ -468,7 +468,7 @@
   <dimension ref="B3:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E13:E16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -605,6 +605,9 @@
         <f>J4*C13</f>
         <v>500</v>
       </c>
+      <c r="F13" s="1">
+        <v>500</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -648,6 +651,9 @@
       </c>
       <c r="E16" s="1">
         <f>J4*C16</f>
+        <v>500</v>
+      </c>
+      <c r="F16" s="1">
         <v>500</v>
       </c>
     </row>
